--- a/biology/Histoire de la zoologie et de la botanique/Robert_Ridgway/Robert_Ridgway.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Ridgway/Robert_Ridgway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Ridgway est un ornithologue américain, né le 2 juillet 1850 à Mount Carmel (Illinois) et mort en 1929 à Olney (Illinois).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné dès son jeune âge par l’histoire naturelle, il montre de réels talents comme observateur, collecteur et illustrateur. À l’âge de 14 ans, il entreprend une correspondance avec Spencer Fullerton Baird (1823-1887) qui l’encourage dans l’étude de l’ornithologie. Trois ans plus tard, il obtient un poste de zoologiste dans les services de recherche géologique chargé d’exploration la région des 40es parallèles, sous la direction de Clarence King (1842-1901). De 1867 à 1869, il explore la Californie, le Nevada, l’Idaho, l’Utah et le Wyoming.
 Il fera paraître en 1877 un compte rendu de ses observations ornithologiques Report on Ornithology of the Fortieth Parallel. Il est l’un des membres fondateurs de l’American Ornithologists' Union en 1883 avec Elliott Coues (1842-1899) et d’autres. Il dirige cette société de 1898 à 1900.
@@ -549,10 +563,12 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1892 : The humming birds[1].
-1889-1895 : The ornithology of Illinois[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1892 : The humming birds.
+1889-1895 : The ornithology of Illinois.</t>
         </is>
       </c>
     </row>
